--- a/financial_files/excel/CSIOY.xlsx
+++ b/financial_files/excel/CSIOY.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O112" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O112" headerRowCount="1">
   <autoFilter ref="A1:O112"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/CSIOY.xlsx
+++ b/financial_files/excel/CSIOY.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,47 @@
     <tableColumn id="13" name="2019"/>
     <tableColumn id="14" name="2020"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:U23" headerRowCount="1">
+  <autoFilter ref="A1:U23"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2001"/>
+    <tableColumn id="3" name="2002"/>
+    <tableColumn id="4" name="2003"/>
+    <tableColumn id="5" name="2004"/>
+    <tableColumn id="6" name="2005"/>
+    <tableColumn id="7" name="2006"/>
+    <tableColumn id="8" name="2007"/>
+    <tableColumn id="9" name="2008"/>
+    <tableColumn id="10" name="2009"/>
+    <tableColumn id="11" name="2010"/>
+    <tableColumn id="12" name="2011"/>
+    <tableColumn id="13" name="2012"/>
+    <tableColumn id="14" name="2013"/>
+    <tableColumn id="15" name="2014"/>
+    <tableColumn id="16" name="2015"/>
+    <tableColumn id="17" name="2016"/>
+    <tableColumn id="18" name="2017"/>
+    <tableColumn id="19" name="2018"/>
+    <tableColumn id="20" name="2019"/>
+    <tableColumn id="21" name="2020"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6648,4 +6691,2252 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3653595000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2915848000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3712004000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4824445000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5311004000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4948157000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5293954000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6183739000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5293914000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4717189000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4184820000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3657997000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3141954000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3144055000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2810668000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3119213000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2844695000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2968406000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2682648000</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2607570000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>147360000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-14741000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>150935000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>253337000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>370911000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>367623000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>409978000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>634998000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>299882000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7716000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>354489000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>109924000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>211596000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>259685000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>305354000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>373403000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>271316000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>278820000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>272277000</v>
+      </c>
+      <c r="U3" t="n">
+        <v>269943000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>75725000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-265708000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>81003000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>207675000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>314410000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>338265000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>352917000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>237087000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-296847000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-325830000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>126557000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8670000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>199873000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>224322000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>284232000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>360076000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>207720000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>232086000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>264242000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>256726000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-18954000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>71799000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-32430000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-72165000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-99027000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-120765000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-127776000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-137054000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-4282000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-67529000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-62280000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>24119000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-73557000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-67794000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-64729000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-83856000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-44679000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-47611000</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-65087000</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-93371000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-8.539999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-8.33</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>27601000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27149000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28095000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>27671000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>28160000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>28124000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>27848000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>27606000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>29099000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>27742000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>29749000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>29447000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>26899000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>26895000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>26729000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>26548000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>25828000</v>
+      </c>
+      <c r="S7" t="n">
+        <v>25126000</v>
+      </c>
+      <c r="T7" t="n">
+        <v>25128000</v>
+      </c>
+      <c r="U7" t="n">
+        <v>24349000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3669668000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3427595000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3868264000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4571127000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4709955000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4280094000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4481349000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4484439000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4543999000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4739875000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4929220000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4440769000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3897035000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3585751000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3111903000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3262627000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3112495000</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3434361000</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3216809000</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3103078000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>230460000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>592823000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>255335000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>398412000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>382844000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1294533000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1549096000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>263468000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>277288000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>179637000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>303747000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>46286000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>415743000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>401927000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2077000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2302000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>19085000</v>
+      </c>
+      <c r="S9" t="n">
+        <v>157525000</v>
+      </c>
+      <c r="T9" t="n">
+        <v>92087000</v>
+      </c>
+      <c r="U9" t="n">
+        <v>233924000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1063833000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1022966000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1231271000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1403576000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1084564000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>847987000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>404656000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>207928000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>719943000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>970059000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1384007000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1314689000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>785354000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>439713000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>639921000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>682120000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>628987000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>532906000</v>
+      </c>
+      <c r="T10" t="n">
+        <v>530733000</v>
+      </c>
+      <c r="U10" t="n">
+        <v>351518000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1358389000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1045765000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1133552000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1357278000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1641358000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1674247000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2018327000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2294777000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1890358000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1861379000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1876762000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1809887000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1730168000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1810210000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1695742000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1789675000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1738736000</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1949055000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1903777000</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1881156000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>176882000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-9393000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>464507000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>569291000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>617124000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>374112000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>306575000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>712105000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>239753000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>64311000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>167955000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>130878000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>100011000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>391901000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>255452000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>289644000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>247262000</v>
+      </c>
+      <c r="S12" t="n">
+        <v>325828000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>186586000</v>
+      </c>
+      <c r="U12" t="n">
+        <v>306936000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-247101000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-169944000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-120990000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-128903000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-194358000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-178840000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-148900000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-158789000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-125083000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-65997000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-64068000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-72576000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-72281000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-49248000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-39495000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-56220000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-11079000</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-53495000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-64007000</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-46875000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0198</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.0888</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0235</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0588</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.08409999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0707</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0618</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0401</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.0953</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.0907</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0249</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0514</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1283</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1563</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.09429999999999999</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.1027</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0891</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.0534</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.2019</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2996</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.0683</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0698</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.1438</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.1089</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.1128</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.1258</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.141</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.106</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.1097</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.08799999999999999</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0434</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.09619999999999999</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.0279</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.074</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-4.5891</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.2417</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.7868</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5387999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0697</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.4309</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-2.95</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.2807</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.5498</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.4245</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.2468</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.4122</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.2682</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.3932</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.1629</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.0795</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.1535</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.1636</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.2301</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0839</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1973</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2093</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2055</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1369</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.1762</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.0153</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.0356</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0462</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.06320000000000001</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0553</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.0284</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.1209</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-0.0232</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.0118</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.5872000000000001</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.0531</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50.4524</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2255</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.3937</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.1805</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.3227</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.6633</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.7317</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.6116</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.2207</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.2358</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.9185</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.3481</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.1338</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.1463</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.3177</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.4273</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.645</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1.6505</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.5539</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.9154</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2819</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.5381</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.1925</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.5092</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.7927</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-1.0147</v>
+      </c>
+      <c r="L19" t="n">
+        <v>62.6174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.4387</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.5243</v>
+      </c>
+      <c r="O19" t="n">
+        <v>11.3567</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.3697</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.0808</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-0.5498</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.1215</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-70219000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-179337000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>343517000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>440388000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>422766000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>195272000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>157675000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>553316000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>114670000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-1686000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>103887000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>58302000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>27730000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>342653000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>215957000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>233424000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>236183000</v>
+      </c>
+      <c r="S20" t="n">
+        <v>272333000</v>
+      </c>
+      <c r="T20" t="n">
+        <v>122579000</v>
+      </c>
+      <c r="U20" t="n">
+        <v>260061000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>49.2152</v>
+      </c>
+      <c r="C21" t="n">
+        <v>38.5194</v>
+      </c>
+      <c r="D21" t="n">
+        <v>40.3471</v>
+      </c>
+      <c r="E21" t="n">
+        <v>49.0505</v>
+      </c>
+      <c r="F21" t="n">
+        <v>58.2868</v>
+      </c>
+      <c r="G21" t="n">
+        <v>59.5308</v>
+      </c>
+      <c r="H21" t="n">
+        <v>72.4765</v>
+      </c>
+      <c r="I21" t="n">
+        <v>83.126</v>
+      </c>
+      <c r="J21" t="n">
+        <v>64.9629</v>
+      </c>
+      <c r="K21" t="n">
+        <v>67.096</v>
+      </c>
+      <c r="L21" t="n">
+        <v>63.0865</v>
+      </c>
+      <c r="M21" t="n">
+        <v>61.4625</v>
+      </c>
+      <c r="N21" t="n">
+        <v>64.32089999999999</v>
+      </c>
+      <c r="O21" t="n">
+        <v>67.3065</v>
+      </c>
+      <c r="P21" t="n">
+        <v>63.442</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>67.4127</v>
+      </c>
+      <c r="R21" t="n">
+        <v>67.3198</v>
+      </c>
+      <c r="S21" t="n">
+        <v>77.5712</v>
+      </c>
+      <c r="T21" t="n">
+        <v>75.76309999999999</v>
+      </c>
+      <c r="U21" t="n">
+        <v>77.258</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2097370800</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2406565860</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1923084050</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2100793900</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3186291680</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4963891960</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5159410240</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3458473200</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3669331680</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3177528000</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3376574400</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-9.074</v>
+      </c>
+      <c r="L23" t="n">
+        <v>34.581</v>
+      </c>
+      <c r="M23" t="n">
+        <v>62.0449</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16.7642</v>
+      </c>
+      <c r="O23" t="n">
+        <v>20.3942</v>
+      </c>
+      <c r="P23" t="n">
+        <v>22.6373</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>18.6786</v>
+      </c>
+      <c r="R23" t="n">
+        <v>21.2122</v>
+      </c>
+      <c r="S23" t="n">
+        <v>19.8906</v>
+      </c>
+      <c r="T23" t="n">
+        <v>15.9549</v>
+      </c>
+      <c r="U23" t="n">
+        <v>20.6701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6.43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8.80%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7.83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6.96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8.20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>10.57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9.54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4.70%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>106.08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-3.96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-15.40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-5.76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-1.49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-2.86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-2.80%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>165.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3.79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>112.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>16.92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>7.47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>64.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>351518000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7.489999726174754</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.03027340959552405</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>7.489999726174754</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>25.2828</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CASIO COMPUTER CO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CSIOY</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Consumer Electronics</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://world.casio.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>4372035584</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>180.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>